--- a/BD paper/catalogos/waveform_4p1_0.5_filtered.xlsx
+++ b/BD paper/catalogos/waveform_4p1_0.5_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,31 @@
           <t>Estación más cercana 5</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 4</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -540,6 +565,31 @@
           <t>PX05</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2016-03-04T07:58:22</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2016-03-04T07:58:24</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2016-03-04T07:58:27</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2016-03-04T07:58:27</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2016-03-04T07:58:33</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -587,6 +637,31 @@
           <t>TA02</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2016-06-03T13:46:54</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2016-06-03T13:46:58</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2016-06-03T13:47:00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2016-06-03T13:47:02</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2016-06-03T13:47:10</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -634,6 +709,31 @@
           <t>CO02</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2016-07-05T09:53:11</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2016-07-05T09:53:14</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2016-07-05T09:53:15</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2016-07-05T09:53:16</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2016-07-05T09:53:21</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -681,6 +781,31 @@
           <t>PB14</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2014-03-18T20:17:37</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2014-03-18T20:17:40</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2014-03-18T20:17:44</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2014-03-18T20:17:50</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2014-03-18T20:17:54</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -728,6 +853,31 @@
           <t>CO05</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2018-06-29T22:17:38</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2018-06-29T22:17:43</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2018-06-29T22:17:44</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2018-06-29T22:17:44</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2018-06-29T22:17:45</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -775,6 +925,31 @@
           <t>AC07</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2019-03-28T21:00:57</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2019-03-28T21:01:08</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-03-28T21:01:10</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2019-03-28T21:01:18</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2019-03-28T21:01:23</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -822,6 +997,31 @@
           <t>VA01</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:09:20</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:09:25</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:09:27</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:09:29</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:09:32</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -867,6 +1067,31 @@
       <c r="K9" t="inlineStr">
         <is>
           <t>CO05</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2020-11-12T10:24:45</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2020-11-12T10:24:54</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2020-11-12T10:24:54</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2020-11-12T10:24:55</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2020-11-12T10:24:56</t>
         </is>
       </c>
     </row>
